--- a/Input/Envelopes.xlsx
+++ b/Input/Envelopes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr15640\Desktop\EUReCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593E663-307F-410F-91E8-A276A714AEB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17838F4C-AA87-47EE-9D77-54DB1E6827AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="225" windowWidth="17985" windowHeight="10440" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -176,18 +176,12 @@
     <t>Asim</t>
   </si>
   <si>
-    <t>Single glazing, metal frame without thermal break</t>
-  </si>
-  <si>
     <t>Single glazing, wood frame</t>
   </si>
   <si>
     <t>Double glazing, air filled, metal frame without thermal break</t>
   </si>
   <si>
-    <t>Double glazing, air filled, air filled, metal frame with thermal break</t>
-  </si>
-  <si>
     <t>Low-e double glazing, air/gas filled, wood frame</t>
   </si>
   <si>
@@ -335,27 +329,9 @@
     <t>beams and dead-air space</t>
   </si>
   <si>
-    <t>Wooden roof/No insulation</t>
-  </si>
-  <si>
-    <t>Stone Masonry</t>
-  </si>
-  <si>
-    <t>Concrete ground slab</t>
-  </si>
-  <si>
-    <t>Beams-wooden slab (6 cm+20 cm)</t>
-  </si>
-  <si>
     <t>Hollow tiles and plaster (6 cm)</t>
   </si>
   <si>
-    <t>Solid Bricks (37.5 cm)</t>
-  </si>
-  <si>
-    <t>Steel beams and hollow bricks (16 cm)</t>
-  </si>
-  <si>
     <t>Ceiling with reinforced brick-concrete slab (20 cm)</t>
   </si>
   <si>
@@ -371,30 +347,9 @@
     <t>Brick-concrete slab - traditional screed (16 cm+ 10 cm)</t>
   </si>
   <si>
-    <t>Ceiling with reinforced brick-concrete slab (16 cm), trad. screed (12 cm)</t>
-  </si>
-  <si>
-    <t>Hollow wall brick masonry (8-6-12)</t>
-  </si>
-  <si>
-    <t>Cinder blocks with cavity (8-5-15)</t>
-  </si>
-  <si>
-    <t>Floor with reinforced concrete slab, traditional screed (12 cm)</t>
-  </si>
-  <si>
     <t>Brick-concrete slab - lightweight screed (6 cm)</t>
   </si>
   <si>
-    <t>Ceiling with reinforced brick-concrete slab (16 cm + 12 cm)</t>
-  </si>
-  <si>
-    <t>Hollow/solid bricks with cavity (12-8-12)</t>
-  </si>
-  <si>
-    <t>Precast Reinforced concrete wall,slightly insulated (1-3-25)</t>
-  </si>
-  <si>
     <t>Hollow tiles and plaster (8 cm)</t>
   </si>
   <si>
@@ -410,24 +365,9 @@
     <t>Floor with reinforced concrete slab, lightweight screed (12 cm)</t>
   </si>
   <si>
-    <t>Ceiling with reinforced brick-concrete slab (24 cm)</t>
-  </si>
-  <si>
-    <t>Hollow/solid bricks with insulated cavity (25-4-8)</t>
-  </si>
-  <si>
-    <t>Precast Reinforced concrete wall, low insulation (30 cm + 4 cm)</t>
-  </si>
-  <si>
-    <t>Internal Floor with reinforced brick-concrete slab (24 cm), trad. screed (12 cm) - insulation (2 cm)</t>
-  </si>
-  <si>
     <t>Ceiling with reinforced brick-concrete slab, insulated (24 cm + 5 cm)</t>
   </si>
   <si>
-    <t>Hollow/solid bricks with cavity (8-5-25)</t>
-  </si>
-  <si>
     <t>Precast reinforced-concrete wall, low insulation (4 cm)</t>
   </si>
   <si>
@@ -452,37 +392,13 @@
     <t>Brick blocks ad external high insulation (2-30-15-2)</t>
   </si>
   <si>
-    <t>Brick-concrete slab - lightweight screed (12 cm) - insulation (10 cm)</t>
-  </si>
-  <si>
-    <t>Before 1930</t>
-  </si>
-  <si>
-    <t>1930-1945</t>
-  </si>
-  <si>
     <t>1945-1960</t>
   </si>
   <si>
-    <t>1961-1970</t>
-  </si>
-  <si>
-    <t>1971-1980</t>
-  </si>
-  <si>
     <t>1981-1990</t>
   </si>
   <si>
-    <t>1991-2000</t>
-  </si>
-  <si>
-    <t>2000-2005</t>
-  </si>
-  <si>
     <t>2005-2010</t>
-  </si>
-  <si>
-    <t>After 2010</t>
   </si>
   <si>
     <t>Air gap with insulation (4cm)</t>
@@ -1097,11 +1013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK20"/>
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
@@ -1157,31 +1073,31 @@
     </row>
     <row r="2" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D2" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G2" s="9">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9">
         <v>2</v>
-      </c>
-      <c r="H2" s="9">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1</v>
       </c>
       <c r="AMB2" s="8"/>
       <c r="AMC2" s="8"/>
@@ -1196,31 +1112,31 @@
     </row>
     <row r="3" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D3" s="9">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E3" s="9">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G3" s="9">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AMB3" s="8"/>
       <c r="AMC3" s="8"/>
@@ -1235,31 +1151,31 @@
     </row>
     <row r="4" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D4" s="9">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F4" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H4" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I4" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AMB4" s="8"/>
       <c r="AMC4" s="8"/>
@@ -1273,33 +1189,15 @@
       <c r="AMK4" s="8"/>
     </row>
     <row r="5" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="9">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9">
-        <v>24</v>
-      </c>
-      <c r="G5" s="9">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9">
-        <v>25</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="AMB5" s="8"/>
       <c r="AMC5" s="8"/>
       <c r="AMD5" s="8"/>
@@ -1312,33 +1210,7 @@
       <c r="AMK5" s="8"/>
     </row>
     <row r="6" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="9">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9">
-        <v>30</v>
-      </c>
-      <c r="F6" s="9">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9">
-        <v>28</v>
-      </c>
-      <c r="H6" s="9">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3</v>
-      </c>
+      <c r="AMA6" s="8"/>
       <c r="AMB6" s="8"/>
       <c r="AMC6" s="8"/>
       <c r="AMD6" s="8"/>
@@ -1348,36 +1220,9 @@
       <c r="AMH6" s="8"/>
       <c r="AMI6" s="8"/>
       <c r="AMJ6" s="8"/>
-      <c r="AMK6" s="8"/>
     </row>
     <row r="7" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="9">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9">
-        <v>38</v>
-      </c>
-      <c r="G7" s="9">
-        <v>35</v>
-      </c>
-      <c r="H7" s="9">
-        <v>39</v>
-      </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
+      <c r="AMA7" s="8"/>
       <c r="AMB7" s="8"/>
       <c r="AMC7" s="8"/>
       <c r="AMD7" s="8"/>
@@ -1387,36 +1232,9 @@
       <c r="AMH7" s="8"/>
       <c r="AMI7" s="8"/>
       <c r="AMJ7" s="8"/>
-      <c r="AMK7" s="8"/>
     </row>
     <row r="8" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="9">
-        <v>41</v>
-      </c>
-      <c r="E8" s="9">
-        <v>44</v>
-      </c>
-      <c r="F8" s="9">
-        <v>45</v>
-      </c>
-      <c r="G8" s="9">
-        <v>42</v>
-      </c>
-      <c r="H8" s="9">
-        <v>46</v>
-      </c>
-      <c r="I8" s="9">
-        <v>4</v>
-      </c>
+      <c r="AMA8" s="8"/>
       <c r="AMB8" s="8"/>
       <c r="AMC8" s="8"/>
       <c r="AMD8" s="8"/>
@@ -1426,192 +1244,38 @@
       <c r="AMH8" s="8"/>
       <c r="AMI8" s="8"/>
       <c r="AMJ8" s="8"/>
-      <c r="AMK8" s="8"/>
-    </row>
-    <row r="9" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="9">
-        <v>48</v>
-      </c>
-      <c r="E9" s="9">
-        <v>51</v>
-      </c>
-      <c r="F9" s="9">
-        <v>52</v>
-      </c>
-      <c r="G9" s="9">
-        <v>49</v>
-      </c>
-      <c r="H9" s="9">
-        <v>53</v>
-      </c>
-      <c r="I9" s="9">
-        <v>4</v>
-      </c>
-      <c r="AMB9" s="8"/>
-      <c r="AMC9" s="8"/>
-      <c r="AMD9" s="8"/>
-      <c r="AME9" s="8"/>
-      <c r="AMF9" s="8"/>
-      <c r="AMG9" s="8"/>
-      <c r="AMH9" s="8"/>
-      <c r="AMI9" s="8"/>
-      <c r="AMJ9" s="8"/>
-      <c r="AMK9" s="8"/>
-    </row>
-    <row r="10" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="9">
-        <v>55</v>
-      </c>
-      <c r="E10" s="9">
-        <v>57</v>
-      </c>
-      <c r="F10" s="9">
-        <v>58</v>
-      </c>
-      <c r="G10" s="9">
-        <v>56</v>
-      </c>
-      <c r="H10" s="9">
-        <v>59</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="AMB10" s="8"/>
-      <c r="AMC10" s="8"/>
-      <c r="AMD10" s="8"/>
-      <c r="AME10" s="8"/>
-      <c r="AMF10" s="8"/>
-      <c r="AMG10" s="8"/>
-      <c r="AMH10" s="8"/>
-      <c r="AMI10" s="8"/>
-      <c r="AMJ10" s="8"/>
-      <c r="AMK10" s="8"/>
-    </row>
-    <row r="11" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="9">
-        <v>61</v>
-      </c>
-      <c r="E11" s="9">
-        <v>63</v>
-      </c>
-      <c r="F11" s="9">
-        <v>64</v>
-      </c>
-      <c r="G11" s="9">
-        <v>62</v>
-      </c>
-      <c r="H11" s="9">
-        <v>65</v>
-      </c>
-      <c r="I11" s="9">
-        <v>6</v>
-      </c>
-      <c r="AMB11" s="8"/>
-      <c r="AMC11" s="8"/>
-      <c r="AMD11" s="8"/>
-      <c r="AME11" s="8"/>
-      <c r="AMF11" s="8"/>
-      <c r="AMG11" s="8"/>
-      <c r="AMH11" s="8"/>
-      <c r="AMI11" s="8"/>
-      <c r="AMJ11" s="8"/>
-      <c r="AMK11" s="8"/>
-    </row>
-    <row r="12" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AMA12" s="8"/>
-      <c r="AMB12" s="8"/>
-      <c r="AMC12" s="8"/>
-      <c r="AMD12" s="8"/>
-      <c r="AME12" s="8"/>
-      <c r="AMF12" s="8"/>
-      <c r="AMG12" s="8"/>
-      <c r="AMH12" s="8"/>
-      <c r="AMI12" s="8"/>
-      <c r="AMJ12" s="8"/>
-    </row>
-    <row r="13" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AMA13" s="8"/>
-      <c r="AMB13" s="8"/>
-      <c r="AMC13" s="8"/>
-      <c r="AMD13" s="8"/>
-      <c r="AME13" s="8"/>
-      <c r="AMF13" s="8"/>
-      <c r="AMG13" s="8"/>
-      <c r="AMH13" s="8"/>
-      <c r="AMI13" s="8"/>
-      <c r="AMJ13" s="8"/>
-    </row>
-    <row r="14" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AMA14" s="8"/>
-      <c r="AMB14" s="8"/>
-      <c r="AMC14" s="8"/>
-      <c r="AMD14" s="8"/>
-      <c r="AME14" s="8"/>
-      <c r="AMF14" s="8"/>
-      <c r="AMG14" s="8"/>
-      <c r="AMH14" s="8"/>
-      <c r="AMI14" s="8"/>
-      <c r="AMJ14" s="8"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+    </row>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1625,7 +1289,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMJ69"/>
+  <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,12 +1419,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1772,25 +1436,33 @@
         <v>45</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -1804,328 +1476,354 @@
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="1">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <v>12</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="1">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1">
+        <v>12</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C11" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
         <v>8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>12</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="8">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C13" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>4</v>
@@ -2137,64 +1835,64 @@
         <v>12</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>50</v>
       </c>
-      <c r="I13" s="1">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1">
-        <v>16</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>107</v>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -2209,347 +1907,369 @@
         <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1">
         <v>4</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>108</v>
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1">
+        <v>43</v>
+      </c>
+      <c r="M17" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>24</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="8">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="G17" s="1">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="8">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1">
-        <v>27</v>
-      </c>
-      <c r="I18" s="1">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C19" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1">
+        <v>33</v>
+      </c>
+      <c r="K19" s="1">
+        <v>41</v>
+      </c>
+      <c r="L19" s="1">
+        <v>26</v>
+      </c>
+      <c r="M19" s="1">
+        <v>12</v>
+      </c>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="8">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1">
         <v>26</v>
       </c>
       <c r="K20" s="1">
-        <v>12</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1">
+        <v>43</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="8">
         <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1">
         <v>4</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>46</v>
+      </c>
+      <c r="H22" s="1">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>12</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1">
+        <v>47</v>
+      </c>
+      <c r="I23" s="1">
+        <v>33</v>
+      </c>
+      <c r="J23" s="1">
+        <v>26</v>
+      </c>
+      <c r="K23" s="1">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1">
+        <v>43</v>
+      </c>
+      <c r="M23" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
-        <v>31</v>
-      </c>
-      <c r="H22" s="1">
-        <v>32</v>
-      </c>
-      <c r="I22" s="1">
-        <v>31</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="8">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1">
-        <v>8</v>
-      </c>
-      <c r="I24" s="1">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>4</v>
@@ -2558,1647 +2278,215 @@
         <v>22</v>
       </c>
       <c r="F25" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H25" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1">
         <v>26</v>
       </c>
       <c r="J25" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K25" s="1">
-        <v>3</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="L25" s="1">
+        <v>26</v>
+      </c>
+      <c r="M25" s="1">
+        <v>12</v>
+      </c>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1">
+        <v>49</v>
+      </c>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1">
+        <v>39</v>
+      </c>
+      <c r="J26" s="1">
+        <v>26</v>
+      </c>
+      <c r="K26" s="1">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1">
+        <v>43</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="AMC26" s="8"/>
+      <c r="AMD26" s="8"/>
+      <c r="AME26" s="8"/>
+      <c r="AMF26" s="8"/>
+      <c r="AMG26" s="8"/>
+      <c r="AMH26" s="8"/>
+      <c r="AMI26" s="8"/>
+      <c r="AMJ26" s="8"/>
+    </row>
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>62</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="1">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1">
-        <v>14</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="8">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I27" s="1">
-        <v>33</v>
-      </c>
-      <c r="J27" s="1">
-        <v>26</v>
-      </c>
-      <c r="K27" s="1">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20</v>
-      </c>
-      <c r="G28" s="1">
-        <v>19</v>
-      </c>
-      <c r="H28" s="1">
-        <v>18</v>
-      </c>
-      <c r="I28" s="1">
-        <v>17</v>
-      </c>
-      <c r="J28" s="1">
-        <v>16</v>
-      </c>
-      <c r="K28" s="1">
-        <v>4</v>
-      </c>
+      <c r="AMC27" s="8"/>
+      <c r="AMD27" s="8"/>
+      <c r="AME27" s="8"/>
+      <c r="AMF27" s="8"/>
+      <c r="AMG27" s="8"/>
+      <c r="AMH27" s="8"/>
+      <c r="AMI27" s="8"/>
+      <c r="AMJ27" s="8"/>
+    </row>
+    <row r="28" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>31</v>
-      </c>
-      <c r="H29" s="1">
-        <v>30</v>
-      </c>
-      <c r="I29" s="1">
-        <v>31</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>36</v>
-      </c>
-      <c r="H30" s="1">
-        <v>37</v>
-      </c>
-      <c r="I30" s="1">
-        <v>38</v>
-      </c>
-      <c r="J30" s="1">
-        <v>4</v>
-      </c>
+      <c r="AMC29" s="8"/>
+      <c r="AMD29" s="8"/>
+      <c r="AME29" s="8"/>
+      <c r="AMF29" s="8"/>
+      <c r="AMG29" s="8"/>
+      <c r="AMH29" s="8"/>
+      <c r="AMI29" s="8"/>
+      <c r="AMJ29" s="8"/>
+    </row>
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="8">
-        <v>3</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1">
-        <v>8</v>
-      </c>
-      <c r="I31" s="1">
-        <v>12</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="AMC30" s="8"/>
+      <c r="AMD30" s="8"/>
+      <c r="AME30" s="8"/>
+      <c r="AMF30" s="8"/>
+      <c r="AMG30" s="8"/>
+      <c r="AMH30" s="8"/>
+      <c r="AMI30" s="8"/>
+      <c r="AMJ30" s="8"/>
+    </row>
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="8">
-        <v>4</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="1">
-        <v>12</v>
-      </c>
-      <c r="G32" s="1">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1">
-        <v>39</v>
-      </c>
-      <c r="I32" s="1">
-        <v>26</v>
-      </c>
-      <c r="J32" s="1">
-        <v>17</v>
-      </c>
-      <c r="K32" s="1">
-        <v>28</v>
-      </c>
-      <c r="L32" s="1">
-        <v>3</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="8">
-        <v>5</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="1">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1">
-        <v>25</v>
-      </c>
-      <c r="H33" s="1">
-        <v>14</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="8">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>28</v>
-      </c>
-      <c r="H34" s="1">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1">
-        <v>26</v>
-      </c>
-      <c r="J34" s="1">
-        <v>39</v>
-      </c>
-      <c r="K34" s="1">
-        <v>26</v>
-      </c>
-      <c r="L34" s="1">
-        <v>12</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="1">
-        <v>40</v>
-      </c>
-      <c r="G35" s="1">
-        <v>41</v>
-      </c>
-      <c r="H35" s="1">
-        <v>20</v>
-      </c>
-      <c r="I35" s="1">
-        <v>39</v>
-      </c>
-      <c r="J35" s="1">
-        <v>26</v>
-      </c>
-      <c r="K35" s="1">
-        <v>17</v>
-      </c>
-      <c r="L35" s="1">
-        <v>28</v>
-      </c>
-      <c r="M35" s="1">
-        <v>4</v>
-      </c>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>34</v>
-      </c>
-      <c r="H36" s="1">
-        <v>35</v>
-      </c>
-      <c r="I36" s="1">
-        <v>21</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="8">
-        <v>2</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1">
-        <v>36</v>
-      </c>
-      <c r="H37" s="1">
-        <v>37</v>
-      </c>
-      <c r="I37" s="1">
-        <v>38</v>
-      </c>
-      <c r="J37" s="1">
-        <v>4</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="8">
-        <v>4</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1">
-        <v>8</v>
-      </c>
-      <c r="I38" s="1">
-        <v>12</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="8">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="1">
-        <v>12</v>
-      </c>
-      <c r="G39" s="1">
-        <v>26</v>
-      </c>
-      <c r="H39" s="1">
-        <v>33</v>
-      </c>
-      <c r="I39" s="1">
-        <v>26</v>
-      </c>
-      <c r="J39" s="1">
-        <v>17</v>
-      </c>
-      <c r="K39" s="1">
-        <v>28</v>
-      </c>
-      <c r="L39" s="1">
-        <v>3</v>
-      </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="8">
-        <v>5</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="1">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1">
-        <v>25</v>
-      </c>
-      <c r="H40" s="1">
-        <v>14</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="8">
-        <v>6</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1">
-        <v>28</v>
-      </c>
-      <c r="H41" s="1">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1">
-        <v>26</v>
-      </c>
-      <c r="J41" s="1">
-        <v>33</v>
-      </c>
-      <c r="K41" s="1">
-        <v>26</v>
-      </c>
-      <c r="L41" s="1">
-        <v>12</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="1">
-        <v>40</v>
-      </c>
-      <c r="G42" s="1">
-        <v>41</v>
-      </c>
-      <c r="H42" s="1">
-        <v>20</v>
-      </c>
-      <c r="I42" s="1">
-        <v>39</v>
-      </c>
-      <c r="J42" s="1">
-        <v>26</v>
-      </c>
-      <c r="K42" s="1">
-        <v>17</v>
-      </c>
-      <c r="L42" s="1">
-        <v>43</v>
-      </c>
-      <c r="M42" s="1">
-        <v>4</v>
-      </c>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="1">
-        <v>3</v>
-      </c>
-      <c r="G43" s="1">
-        <v>44</v>
-      </c>
-      <c r="H43" s="1">
-        <v>45</v>
-      </c>
-      <c r="I43" s="1">
-        <v>21</v>
-      </c>
-      <c r="J43" s="1">
-        <v>4</v>
-      </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1">
-        <v>37</v>
-      </c>
-      <c r="H44" s="1">
-        <v>51</v>
-      </c>
-      <c r="I44" s="1">
-        <v>45</v>
-      </c>
-      <c r="J44" s="1">
-        <v>4</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="8">
-        <v>3</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="1">
-        <v>6</v>
-      </c>
-      <c r="G45" s="1">
-        <v>46</v>
-      </c>
-      <c r="H45" s="1">
-        <v>18</v>
-      </c>
-      <c r="I45" s="1">
-        <v>12</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="8">
-        <v>4</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="1">
-        <v>12</v>
-      </c>
-      <c r="G46" s="1">
-        <v>26</v>
-      </c>
-      <c r="H46" s="1">
-        <v>33</v>
-      </c>
-      <c r="I46" s="1">
-        <v>26</v>
-      </c>
-      <c r="J46" s="1">
-        <v>17</v>
-      </c>
-      <c r="K46" s="1">
-        <v>43</v>
-      </c>
-      <c r="L46" s="1">
-        <v>3</v>
-      </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="8">
-        <v>5</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="1">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1">
-        <v>25</v>
-      </c>
-      <c r="H47" s="1">
-        <v>14</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="8">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1">
-        <v>43</v>
-      </c>
-      <c r="H48" s="1">
-        <v>17</v>
-      </c>
-      <c r="I48" s="1">
-        <v>26</v>
-      </c>
-      <c r="J48" s="1">
-        <v>33</v>
-      </c>
-      <c r="K48" s="1">
-        <v>26</v>
-      </c>
-      <c r="L48" s="1">
-        <v>12</v>
-      </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="8">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="1">
-        <v>40</v>
-      </c>
-      <c r="G49" s="1">
-        <v>47</v>
-      </c>
-      <c r="H49" s="1">
-        <v>20</v>
-      </c>
-      <c r="I49" s="1">
-        <v>39</v>
-      </c>
-      <c r="J49" s="1">
-        <v>26</v>
-      </c>
-      <c r="K49" s="1">
-        <v>17</v>
-      </c>
-      <c r="L49" s="1">
-        <v>43</v>
-      </c>
-      <c r="M49" s="1">
-        <v>4</v>
-      </c>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1">
-        <v>48</v>
-      </c>
-      <c r="H50" s="1">
-        <v>54</v>
-      </c>
-      <c r="I50" s="1">
-        <v>21</v>
-      </c>
-      <c r="J50" s="1">
-        <v>4</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
-      </c>
-      <c r="G51" s="1">
-        <v>37</v>
-      </c>
-      <c r="H51" s="1">
-        <v>51</v>
-      </c>
-      <c r="I51" s="1">
-        <v>45</v>
-      </c>
-      <c r="J51" s="1">
-        <v>4</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="8">
-        <v>3</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1">
-        <v>46</v>
-      </c>
-      <c r="H52" s="1">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1">
-        <v>8</v>
-      </c>
-      <c r="J52" s="1">
-        <v>12</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="8">
-        <v>4</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="1">
-        <v>12</v>
-      </c>
-      <c r="G53" s="1">
-        <v>26</v>
-      </c>
-      <c r="H53" s="1">
-        <v>41</v>
-      </c>
-      <c r="I53" s="1">
-        <v>33</v>
-      </c>
-      <c r="J53" s="1">
-        <v>26</v>
-      </c>
-      <c r="K53" s="1">
-        <v>17</v>
-      </c>
-      <c r="L53" s="1">
-        <v>43</v>
-      </c>
-      <c r="M53" s="1">
-        <v>3</v>
-      </c>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="8">
-        <v>5</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="1">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1">
-        <v>25</v>
-      </c>
-      <c r="H54" s="1">
-        <v>14</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="8">
-        <v>6</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
-      </c>
-      <c r="G55" s="1">
-        <v>43</v>
-      </c>
-      <c r="H55" s="1">
-        <v>17</v>
-      </c>
-      <c r="I55" s="1">
-        <v>26</v>
-      </c>
-      <c r="J55" s="1">
-        <v>33</v>
-      </c>
-      <c r="K55" s="1">
-        <v>41</v>
-      </c>
-      <c r="L55" s="1">
-        <v>26</v>
-      </c>
-      <c r="M55" s="1">
-        <v>12</v>
-      </c>
-      <c r="N55" s="8"/>
-    </row>
-    <row r="56" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="1">
-        <v>40</v>
-      </c>
-      <c r="G56" s="1">
-        <v>49</v>
-      </c>
-      <c r="H56" s="1">
-        <v>20</v>
-      </c>
-      <c r="I56" s="1">
-        <v>39</v>
-      </c>
-      <c r="J56" s="1">
-        <v>26</v>
-      </c>
-      <c r="K56" s="1">
-        <v>17</v>
-      </c>
-      <c r="L56" s="1">
-        <v>43</v>
-      </c>
-      <c r="M56" s="1">
-        <v>4</v>
-      </c>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1">
-        <v>3</v>
-      </c>
-      <c r="G57" s="1">
-        <v>49</v>
-      </c>
-      <c r="H57" s="1">
-        <v>53</v>
-      </c>
-      <c r="I57" s="1">
-        <v>4</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="8">
-        <v>3</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="1">
-        <v>6</v>
-      </c>
-      <c r="G58" s="1">
-        <v>46</v>
-      </c>
-      <c r="H58" s="1">
-        <v>49</v>
-      </c>
-      <c r="I58" s="1">
-        <v>8</v>
-      </c>
-      <c r="J58" s="1">
-        <v>12</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-    </row>
-    <row r="59" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="8">
-        <v>4</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="1">
-        <v>12</v>
-      </c>
-      <c r="G59" s="1">
-        <v>26</v>
-      </c>
-      <c r="H59" s="1">
-        <v>47</v>
-      </c>
-      <c r="I59" s="1">
-        <v>33</v>
-      </c>
-      <c r="J59" s="1">
-        <v>26</v>
-      </c>
-      <c r="K59" s="1">
-        <v>17</v>
-      </c>
-      <c r="L59" s="1">
-        <v>43</v>
-      </c>
-      <c r="M59" s="1">
-        <v>3</v>
-      </c>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="8">
-        <v>5</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="1">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1">
-        <v>25</v>
-      </c>
-      <c r="H60" s="1">
-        <v>14</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="8">
-        <v>6</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3</v>
-      </c>
-      <c r="G61" s="1">
-        <v>43</v>
-      </c>
-      <c r="H61" s="1">
-        <v>17</v>
-      </c>
-      <c r="I61" s="1">
-        <v>26</v>
-      </c>
-      <c r="J61" s="1">
-        <v>33</v>
-      </c>
-      <c r="K61" s="1">
-        <v>47</v>
-      </c>
-      <c r="L61" s="1">
-        <v>26</v>
-      </c>
-      <c r="M61" s="1">
-        <v>12</v>
-      </c>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="8">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="1">
-        <v>40</v>
-      </c>
-      <c r="G62" s="1">
-        <v>49</v>
-      </c>
-      <c r="H62" s="1">
-        <v>20</v>
-      </c>
-      <c r="I62" s="1">
-        <v>39</v>
-      </c>
-      <c r="J62" s="1">
-        <v>26</v>
-      </c>
-      <c r="K62" s="1">
-        <v>17</v>
-      </c>
-      <c r="L62" s="1">
-        <v>43</v>
-      </c>
-      <c r="M62" s="1">
-        <v>4</v>
-      </c>
-      <c r="N62" s="8"/>
-      <c r="AMC62" s="8"/>
-      <c r="AMD62" s="8"/>
-      <c r="AME62" s="8"/>
-      <c r="AMF62" s="8"/>
-      <c r="AMG62" s="8"/>
-      <c r="AMH62" s="8"/>
-      <c r="AMI62" s="8"/>
-      <c r="AMJ62" s="8"/>
-    </row>
-    <row r="63" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="8">
-        <v>2</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3</v>
-      </c>
-      <c r="G63" s="1">
-        <v>52</v>
-      </c>
-      <c r="H63" s="1">
-        <v>53</v>
-      </c>
-      <c r="I63" s="1">
-        <v>4</v>
-      </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="AMC63" s="8"/>
-      <c r="AMD63" s="8"/>
-      <c r="AME63" s="8"/>
-      <c r="AMF63" s="8"/>
-      <c r="AMG63" s="8"/>
-      <c r="AMH63" s="8"/>
-      <c r="AMI63" s="8"/>
-      <c r="AMJ63" s="8"/>
-    </row>
-    <row r="64" spans="1:1024" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1">
-        <v>6</v>
-      </c>
-      <c r="G64" s="1">
-        <v>46</v>
-      </c>
-      <c r="H64" s="1">
-        <v>49</v>
-      </c>
-      <c r="I64" s="1">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1">
-        <v>12</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="8">
-        <v>4</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="1">
-        <v>12</v>
-      </c>
-      <c r="G65" s="1">
-        <v>26</v>
-      </c>
-      <c r="H65" s="1">
-        <v>49</v>
-      </c>
-      <c r="I65" s="1">
-        <v>33</v>
-      </c>
-      <c r="J65" s="1">
-        <v>26</v>
-      </c>
-      <c r="K65" s="1">
-        <v>17</v>
-      </c>
-      <c r="L65" s="1">
-        <v>43</v>
-      </c>
-      <c r="M65" s="1">
-        <v>3</v>
-      </c>
-      <c r="N65" s="8"/>
-      <c r="AMC65" s="8"/>
-      <c r="AMD65" s="8"/>
-      <c r="AME65" s="8"/>
-      <c r="AMF65" s="8"/>
-      <c r="AMG65" s="8"/>
-      <c r="AMH65" s="8"/>
-      <c r="AMI65" s="8"/>
-      <c r="AMJ65" s="8"/>
-    </row>
-    <row r="66" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="8">
-        <v>5</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="1">
-        <v>14</v>
-      </c>
-      <c r="G66" s="1">
-        <v>25</v>
-      </c>
-      <c r="H66" s="1">
-        <v>14</v>
-      </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="AMC66" s="8"/>
-      <c r="AMD66" s="8"/>
-      <c r="AME66" s="8"/>
-      <c r="AMF66" s="8"/>
-      <c r="AMG66" s="8"/>
-      <c r="AMH66" s="8"/>
-      <c r="AMI66" s="8"/>
-      <c r="AMJ66" s="8"/>
-    </row>
-    <row r="67" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="8">
-        <v>6</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3</v>
-      </c>
-      <c r="G67" s="1">
-        <v>43</v>
-      </c>
-      <c r="H67" s="1">
-        <v>17</v>
-      </c>
-      <c r="I67" s="1">
-        <v>26</v>
-      </c>
-      <c r="J67" s="1">
-        <v>33</v>
-      </c>
-      <c r="K67" s="1">
-        <v>49</v>
-      </c>
-      <c r="L67" s="1">
-        <v>26</v>
-      </c>
-      <c r="M67" s="1">
-        <v>12</v>
-      </c>
-      <c r="N67" s="8"/>
-      <c r="AMC67" s="8"/>
-      <c r="AMD67" s="8"/>
-      <c r="AME67" s="8"/>
-      <c r="AMF67" s="8"/>
-      <c r="AMG67" s="8"/>
-      <c r="AMH67" s="8"/>
-      <c r="AMI67" s="8"/>
-      <c r="AMJ67" s="8"/>
-    </row>
-    <row r="68" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="8"/>
-      <c r="AMC68" s="8"/>
-      <c r="AMD68" s="8"/>
-      <c r="AME68" s="8"/>
-      <c r="AMF68" s="8"/>
-      <c r="AMG68" s="8"/>
-      <c r="AMH68" s="8"/>
-      <c r="AMI68" s="8"/>
-      <c r="AMJ68" s="8"/>
-    </row>
-    <row r="69" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="8"/>
+      <c r="AMC31" s="8"/>
+      <c r="AMD31" s="8"/>
+      <c r="AME31" s="8"/>
+      <c r="AMF31" s="8"/>
+      <c r="AMG31" s="8"/>
+      <c r="AMH31" s="8"/>
+      <c r="AMI31" s="8"/>
+      <c r="AMJ31" s="8"/>
+    </row>
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="AMC32" s="8"/>
+      <c r="AMD32" s="8"/>
+      <c r="AME32" s="8"/>
+      <c r="AMF32" s="8"/>
+      <c r="AMG32" s="8"/>
+      <c r="AMH32" s="8"/>
+      <c r="AMI32" s="8"/>
+      <c r="AMJ32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4211,7 +2499,7 @@
   <dimension ref="A1:AMI165"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A60" sqref="A60:I60"/>
     </sheetView>
   </sheetViews>
@@ -4292,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -4319,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>36</v>
@@ -4347,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>36</v>
@@ -4374,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>36</v>
@@ -4401,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>36</v>
@@ -4428,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>36</v>
@@ -4455,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>36</v>
@@ -4482,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>36</v>
@@ -4509,7 +2797,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>36</v>
@@ -4536,7 +2824,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>36</v>
@@ -4563,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>36</v>
@@ -4590,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>36</v>
@@ -4617,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>36</v>
@@ -4644,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>36</v>
@@ -4671,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>36</v>
@@ -4698,7 +2986,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>36</v>
@@ -4725,7 +3013,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>36</v>
@@ -4752,7 +3040,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>36</v>
@@ -4779,7 +3067,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>36</v>
@@ -4806,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>36</v>
@@ -4833,7 +3121,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>36</v>
@@ -4860,7 +3148,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>37</v>
@@ -5900,7 +4188,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>36</v>
@@ -5927,7 +4215,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>36</v>
@@ -5954,7 +4242,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>36</v>
@@ -5981,7 +4269,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>36</v>
@@ -6008,7 +4296,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>36</v>
@@ -6035,7 +4323,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>36</v>
@@ -6062,7 +4350,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>36</v>
@@ -6089,7 +4377,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>37</v>
@@ -7129,7 +5417,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>36</v>
@@ -7156,7 +5444,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>37</v>
@@ -8196,7 +6484,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>36</v>
@@ -8223,7 +6511,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>36</v>
@@ -8250,7 +6538,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>37</v>
@@ -9289,7 +7577,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>36</v>
@@ -9316,7 +7604,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>36</v>
@@ -9343,7 +7631,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>36</v>
@@ -9370,7 +7658,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>36</v>
@@ -9397,7 +7685,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>36</v>
@@ -9424,7 +7712,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>36</v>
@@ -9451,7 +7739,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>36</v>
@@ -9478,7 +7766,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>36</v>
@@ -9505,7 +7793,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>36</v>
@@ -9532,7 +7820,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>36</v>
@@ -9559,7 +7847,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>36</v>
@@ -9586,7 +7874,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>36</v>
@@ -9613,7 +7901,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>36</v>
@@ -9640,7 +7928,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>36</v>
@@ -9667,7 +7955,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>36</v>
@@ -9694,7 +7982,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>36</v>
@@ -9721,7 +8009,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>36</v>
@@ -9748,7 +8036,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>36</v>
@@ -9775,7 +8063,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>37</v>
@@ -11079,11 +9367,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11134,27 +9422,27 @@
         <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2">
-        <v>5.7</v>
+      <c r="C3" s="3">
+        <v>4.9000000000000004</v>
       </c>
       <c r="D3" s="2">
         <v>0.82</v>
@@ -11175,250 +9463,122 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <f>1/8</f>
+        <f t="shared" ref="J3:J5" si="0">1/8</f>
         <v>0.125</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:M8" si="0">1/8</f>
+        <f t="shared" ref="K3:M5" si="1">1/8</f>
         <v>0.125</v>
       </c>
       <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="M3" s="4">
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J8" si="1">1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
       <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -11427,6 +9587,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B4A72D35825A314C9EB5C5BDD49EC582" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ab3cfd4ffe88710ffd03436b1addd592">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0574b82-72ca-428d-96cb-9dbc44012ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb55e547d0e393e34c6bbb534eb78df0" ns3:_="">
     <xsd:import namespace="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
@@ -11610,35 +9785,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81EF3F0-7775-4285-BFE0-18A3A29E794A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11660,9 +9810,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81EF3F0-7775-4285-BFE0-18A3A29E794A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input/Envelopes.xlsx
+++ b/Input/Envelopes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr15640\Desktop\EUReCA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17838F4C-AA87-47EE-9D77-54DB1E6827AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B0B76-AB8E-4FCF-BEE4-53D9AF02A809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="225" windowWidth="17985" windowHeight="10440" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9587,21 +9587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B4A72D35825A314C9EB5C5BDD49EC582" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ab3cfd4ffe88710ffd03436b1addd592">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0574b82-72ca-428d-96cb-9dbc44012ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb55e547d0e393e34c6bbb534eb78df0" ns3:_="">
     <xsd:import namespace="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
@@ -9785,31 +9770,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A0EADE-0FE4-4B1A-A335-85BC59899BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81EF3F0-7775-4285-BFE0-18A3A29E794A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9825,4 +9801,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A0EADE-0FE4-4B1A-A335-85BC59899BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>